--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H2">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N2">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q2">
-        <v>73.89903786726067</v>
+        <v>54.21818368750555</v>
       </c>
       <c r="R2">
-        <v>665.0913408053461</v>
+        <v>487.96365318755</v>
       </c>
       <c r="S2">
-        <v>0.001993017975595573</v>
+        <v>0.001221198022785442</v>
       </c>
       <c r="T2">
-        <v>0.001993017975595573</v>
+        <v>0.001221198022785442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H3">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q3">
-        <v>184.7835044311013</v>
+        <v>175.7117485166555</v>
       </c>
       <c r="R3">
-        <v>1663.051539879912</v>
+        <v>1581.4057366499</v>
       </c>
       <c r="S3">
-        <v>0.004983513406307636</v>
+        <v>0.003957691410421809</v>
       </c>
       <c r="T3">
-        <v>0.004983513406307636</v>
+        <v>0.00395769141042181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H4">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N4">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q4">
-        <v>27.4974409983</v>
+        <v>72.75165349631388</v>
       </c>
       <c r="R4">
-        <v>247.4769689847</v>
+        <v>654.7648814668249</v>
       </c>
       <c r="S4">
-        <v>0.0007415914438687136</v>
+        <v>0.001638641676308017</v>
       </c>
       <c r="T4">
-        <v>0.0007415914438687135</v>
+        <v>0.001638641676308017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H5">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N5">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q5">
-        <v>605.5016613257128</v>
+        <v>706.489383955311</v>
       </c>
       <c r="R5">
-        <v>5449.514951931415</v>
+        <v>6358.4044555978</v>
       </c>
       <c r="S5">
-        <v>0.016330059634102</v>
+        <v>0.01591280600209321</v>
       </c>
       <c r="T5">
-        <v>0.01633005963410199</v>
+        <v>0.01591280600209322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H6">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I6">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J6">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N6">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q6">
-        <v>9.487937632385334</v>
+        <v>11.63545710749722</v>
       </c>
       <c r="R6">
-        <v>85.391438691468</v>
+        <v>104.719113967475</v>
       </c>
       <c r="S6">
-        <v>0.0002558846609970705</v>
+        <v>0.0002620743862571497</v>
       </c>
       <c r="T6">
-        <v>0.0002558846609970705</v>
+        <v>0.0002620743862571497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I7">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J7">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N7">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q7">
-        <v>2918.688749558431</v>
+        <v>2251.937657575559</v>
       </c>
       <c r="R7">
-        <v>26268.19874602588</v>
+        <v>20267.43891818004</v>
       </c>
       <c r="S7">
-        <v>0.07871549225697849</v>
+        <v>0.0507221309868611</v>
       </c>
       <c r="T7">
-        <v>0.07871549225697849</v>
+        <v>0.0507221309868611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I8">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J8">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q8">
         <v>7298.140152457548</v>
@@ -948,10 +948,10 @@
         <v>65683.26137211794</v>
       </c>
       <c r="S8">
-        <v>0.1968269808653042</v>
+        <v>0.1643816468578246</v>
       </c>
       <c r="T8">
-        <v>0.1968269808653042</v>
+        <v>0.1643816468578246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I9">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J9">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N9">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q9">
-        <v>1086.0286412327</v>
+        <v>3021.720334703735</v>
       </c>
       <c r="R9">
-        <v>9774.257771094299</v>
+        <v>27195.48301233361</v>
       </c>
       <c r="S9">
-        <v>0.02928961819335579</v>
+        <v>0.0680605407111995</v>
       </c>
       <c r="T9">
-        <v>0.02928961819335579</v>
+        <v>0.0680605407111995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I10">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J10">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N10">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q10">
-        <v>23914.66706135896</v>
+        <v>29343.84629289893</v>
       </c>
       <c r="R10">
-        <v>215232.0035522306</v>
+        <v>264094.6166360904</v>
       </c>
       <c r="S10">
-        <v>0.644965925257161</v>
+        <v>0.660934111705887</v>
       </c>
       <c r="T10">
-        <v>0.6449659252571609</v>
+        <v>0.6609341117058871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I11">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J11">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N11">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q11">
-        <v>374.7320347241435</v>
+        <v>483.2755773321202</v>
       </c>
       <c r="R11">
-        <v>3372.588312517292</v>
+        <v>4349.480195989082</v>
       </c>
       <c r="S11">
-        <v>0.01010632482899479</v>
+        <v>0.01088518905207226</v>
       </c>
       <c r="T11">
-        <v>0.01010632482899479</v>
+        <v>0.01088518905207226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H12">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N12">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q12">
-        <v>0.2213249630672222</v>
+        <v>1.115908596803111</v>
       </c>
       <c r="R12">
-        <v>1.991924667605</v>
+        <v>10.043177371228</v>
       </c>
       <c r="S12">
-        <v>5.969017223652134E-06</v>
+        <v>2.513447111912894E-05</v>
       </c>
       <c r="T12">
-        <v>5.969017223652134E-06</v>
+        <v>2.513447111912893E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H13">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q13">
-        <v>0.5534199561177777</v>
+        <v>3.616466605727111</v>
       </c>
       <c r="R13">
-        <v>4.98077960506</v>
+        <v>32.548199451544</v>
       </c>
       <c r="S13">
-        <v>1.492544358395082E-05</v>
+        <v>8.145647028381145E-05</v>
       </c>
       <c r="T13">
-        <v>1.492544358395082E-05</v>
+        <v>8.145647028381145E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H14">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I14">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J14">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N14">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q14">
-        <v>0.08235384775</v>
+        <v>1.497361033635778</v>
       </c>
       <c r="R14">
-        <v>0.74118462975</v>
+        <v>13.476249302722</v>
       </c>
       <c r="S14">
-        <v>2.221039727472912E-06</v>
+        <v>3.372621894180804E-05</v>
       </c>
       <c r="T14">
-        <v>2.221039727472912E-06</v>
+        <v>3.372621894180803E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H15">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I15">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J15">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N15">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q15">
-        <v>1.813455718743889</v>
+        <v>14.54083341577422</v>
       </c>
       <c r="R15">
-        <v>16.321101468695</v>
+        <v>130.867500741968</v>
       </c>
       <c r="S15">
-        <v>4.890794183132895E-05</v>
+        <v>0.0003275144206110334</v>
       </c>
       <c r="T15">
-        <v>4.890794183132895E-05</v>
+        <v>0.0003275144206110334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H16">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I16">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J16">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N16">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q16">
-        <v>0.02841603228777778</v>
+        <v>0.2394788192984444</v>
       </c>
       <c r="R16">
-        <v>0.25574429059</v>
+        <v>2.155309373686</v>
       </c>
       <c r="S16">
-        <v>7.663653652212919E-07</v>
+        <v>5.393966391641539E-06</v>
       </c>
       <c r="T16">
-        <v>7.663653652212918E-07</v>
+        <v>5.393966391641539E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H17">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I17">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J17">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N17">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q17">
-        <v>47.38313827169144</v>
+        <v>49.74428980728577</v>
       </c>
       <c r="R17">
-        <v>426.448244445223</v>
+        <v>447.6986082655719</v>
       </c>
       <c r="S17">
-        <v>0.001277898184347663</v>
+        <v>0.001120429055824726</v>
       </c>
       <c r="T17">
-        <v>0.001277898184347663</v>
+        <v>0.001120429055824726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H18">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I18">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J18">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q18">
-        <v>118.4808705698396</v>
+        <v>161.2126328527618</v>
       </c>
       <c r="R18">
-        <v>1066.327835128556</v>
+        <v>1450.913695674856</v>
       </c>
       <c r="S18">
-        <v>0.003195366429994035</v>
+        <v>0.003631116630954143</v>
       </c>
       <c r="T18">
-        <v>0.003195366429994035</v>
+        <v>0.003631116630954143</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H19">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I19">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J19">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N19">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q19">
-        <v>17.63101505165</v>
+        <v>66.74844285338644</v>
       </c>
       <c r="R19">
-        <v>158.67913546485</v>
+        <v>600.7359856804779</v>
       </c>
       <c r="S19">
-        <v>0.0004754991531696529</v>
+        <v>0.001503426726840852</v>
       </c>
       <c r="T19">
-        <v>0.0004754991531696528</v>
+        <v>0.001503426726840852</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H20">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I20">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J20">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N20">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q20">
-        <v>388.2400876973508</v>
+        <v>648.1923640932034</v>
       </c>
       <c r="R20">
-        <v>3494.160789276157</v>
+        <v>5833.731276838831</v>
       </c>
       <c r="S20">
-        <v>0.01047062987501253</v>
+        <v>0.01459973720214565</v>
       </c>
       <c r="T20">
-        <v>0.01047062987501253</v>
+        <v>0.01459973720214565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H21">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I21">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J21">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N21">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q21">
-        <v>6.083546873181555</v>
+        <v>10.67534009865711</v>
       </c>
       <c r="R21">
-        <v>54.75192185863399</v>
+        <v>96.07806088791399</v>
       </c>
       <c r="S21">
-        <v>0.0001640700423652014</v>
+        <v>0.0002404489293883609</v>
       </c>
       <c r="T21">
-        <v>0.0001640700423652014</v>
+        <v>0.0002404489293883609</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H22">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I22">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J22">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N22">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q22">
-        <v>0.4115091851712223</v>
+        <v>1.074310818204</v>
       </c>
       <c r="R22">
-        <v>3.703582666541001</v>
+        <v>9.668797363835999</v>
       </c>
       <c r="S22">
-        <v>1.109818512985377E-05</v>
+        <v>2.419753222662953E-05</v>
       </c>
       <c r="T22">
-        <v>1.109818512985377E-05</v>
+        <v>2.419753222662953E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H23">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I23">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J23">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q23">
-        <v>1.028972927605778</v>
+        <v>3.481655405592</v>
       </c>
       <c r="R23">
-        <v>9.260756348452002</v>
+        <v>31.334898650328</v>
       </c>
       <c r="S23">
-        <v>2.775085576625704E-05</v>
+        <v>7.84200135112422E-05</v>
       </c>
       <c r="T23">
-        <v>2.775085576625704E-05</v>
+        <v>7.84200135112422E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H24">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I24">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J24">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N24">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q24">
-        <v>0.15312039055</v>
+        <v>1.441543834146</v>
       </c>
       <c r="R24">
-        <v>1.37808351495</v>
+        <v>12.973894507314</v>
       </c>
       <c r="S24">
-        <v>4.129575967477705E-06</v>
+        <v>3.246900505122089E-05</v>
       </c>
       <c r="T24">
-        <v>4.129575967477705E-06</v>
+        <v>3.246900505122089E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H25">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I25">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J25">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N25">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q25">
-        <v>3.37175560687989</v>
+        <v>13.998794067024</v>
       </c>
       <c r="R25">
-        <v>30.345800461919</v>
+        <v>125.989146603216</v>
       </c>
       <c r="S25">
-        <v>9.093446583022314E-05</v>
+        <v>0.0003153056497532552</v>
       </c>
       <c r="T25">
-        <v>9.093446583022312E-05</v>
+        <v>0.0003153056497532553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H26">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I26">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J26">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N26">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q26">
-        <v>0.05283388791977778</v>
+        <v>0.230551755798</v>
       </c>
       <c r="R26">
-        <v>0.475504991278</v>
+        <v>2.074965802182</v>
       </c>
       <c r="S26">
-        <v>1.424902020157008E-06</v>
+        <v>5.192895246232897E-06</v>
       </c>
       <c r="T26">
-        <v>1.424902020157007E-06</v>
+        <v>5.192895246232897E-06</v>
       </c>
     </row>
   </sheetData>
